--- a/comparison_results.xlsx
+++ b/comparison_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjhee\OneDrive\바탕 화면\신컨 외주\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjhee\OneDrive\바탕 화면\sins_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61088E68-5D7F-467B-9673-E221FF234F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B10103-C229-4971-80F7-7F34B3BBF421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1725" windowWidth="13050" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-75" yWindow="3000" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -466,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
